--- a/apa/apa2017_14_18outubro.xlsx
+++ b/apa/apa2017_14_18outubro.xlsx
@@ -8409,11 +8409,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>1,000.0</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="n">
         <v>60.9</v>
       </c>
@@ -8564,11 +8560,7 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>1,000.0</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="n">
         <v>61.7</v>
       </c>
@@ -8721,11 +8713,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>1,000.0</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="n">
         <v>68.09999999999999</v>
       </c>
@@ -8878,11 +8866,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>1,000.0</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="n">
         <v>68.3</v>
       </c>
@@ -9035,11 +9019,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>1,000.0</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="n">
         <v>70.09999999999999</v>
       </c>
